--- a/data/players.xlsx
+++ b/data/players.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7dc9a4b3fab6b0ac/Documents/UIUC/CS416/nba-viz/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{D110BBAA-CE82-4512-A36A-17592ED43A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33B62673-E87C-43EF-B9A0-C1FB744BC662}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{D110BBAA-CE82-4512-A36A-17592ED43A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6AF31AA9-1F9F-4947-B943-8A0B5F495154}"/>
   <bookViews>
     <workbookView xWindow="-16297" yWindow="-6067" windowWidth="16395" windowHeight="28394" xr2:uid="{543E3193-BB48-4A45-9FC1-EDF914C8AC3E}"/>
   </bookViews>
@@ -1442,13 +1442,13 @@
     <t>Mason Plumlee</t>
   </si>
   <si>
-    <t>Nikola Jokić</t>
-  </si>
-  <si>
     <t>Rank</t>
   </si>
   <si>
-    <t>Player</t>
+    <t>player</t>
+  </si>
+  <si>
+    <t>Nikola Jokic</t>
   </si>
 </sst>
 </file>
@@ -1914,6 +1914,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2233,8 +2237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCC352F4-A711-4D31-BF70-F313E2F23EA0}">
   <dimension ref="A1:E442"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="K134" sqref="K134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2245,10 +2249,10 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.6" thickTop="1" thickBot="1">
       <c r="A1" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>469</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>470</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
@@ -2348,7 +2352,7 @@
       </c>
       <c r="E7" s="9"/>
     </row>
-    <row r="8" spans="1:5" ht="30.6">
+    <row r="8" spans="1:5" ht="20.399999999999999">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2858,7 +2862,7 @@
       </c>
       <c r="E41" s="9"/>
     </row>
-    <row r="42" spans="1:5" ht="20.399999999999999">
+    <row r="42" spans="1:5">
       <c r="A42" s="7">
         <v>41</v>
       </c>
@@ -2993,7 +2997,7 @@
       </c>
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" ht="30.6">
+    <row r="51" spans="1:5" ht="20.399999999999999">
       <c r="A51" s="7">
         <v>50</v>
       </c>
@@ -3293,7 +3297,7 @@
       </c>
       <c r="E70" s="9"/>
     </row>
-    <row r="71" spans="1:5" ht="30.6">
+    <row r="71" spans="1:5" ht="20.399999999999999">
       <c r="A71" s="7">
         <v>70</v>
       </c>
@@ -3398,7 +3402,7 @@
       </c>
       <c r="E77" s="9"/>
     </row>
-    <row r="78" spans="1:5" ht="30.6">
+    <row r="78" spans="1:5" ht="20.399999999999999">
       <c r="A78" s="7">
         <v>77</v>
       </c>
@@ -3503,7 +3507,7 @@
       </c>
       <c r="E84" s="9"/>
     </row>
-    <row r="85" spans="1:5" ht="30.6">
+    <row r="85" spans="1:5" ht="20.399999999999999">
       <c r="A85" s="7">
         <v>84</v>
       </c>
@@ -3593,7 +3597,7 @@
       </c>
       <c r="E90" s="9"/>
     </row>
-    <row r="91" spans="1:5" ht="30.6">
+    <row r="91" spans="1:5" ht="20.399999999999999">
       <c r="A91" s="7">
         <v>90</v>
       </c>
@@ -3668,7 +3672,7 @@
       </c>
       <c r="E95" s="9"/>
     </row>
-    <row r="96" spans="1:5" ht="30.6">
+    <row r="96" spans="1:5" ht="20.399999999999999">
       <c r="A96" s="7">
         <v>95</v>
       </c>
@@ -3818,7 +3822,7 @@
       </c>
       <c r="E105" s="9"/>
     </row>
-    <row r="106" spans="1:5" ht="20.399999999999999">
+    <row r="106" spans="1:5">
       <c r="A106" s="7">
         <v>105</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C136" s="39">
         <v>295172</v>
@@ -4313,7 +4317,7 @@
       </c>
       <c r="E138" s="9"/>
     </row>
-    <row r="139" spans="1:5" ht="20.399999999999999">
+    <row r="139" spans="1:5">
       <c r="A139" s="7">
         <v>138</v>
       </c>
@@ -4388,7 +4392,7 @@
       </c>
       <c r="E143" s="9"/>
     </row>
-    <row r="144" spans="1:5" ht="30.6">
+    <row r="144" spans="1:5" ht="20.399999999999999">
       <c r="A144" s="7">
         <v>143</v>
       </c>
@@ -4403,7 +4407,7 @@
       </c>
       <c r="E144" s="9"/>
     </row>
-    <row r="145" spans="1:5" ht="30.6">
+    <row r="145" spans="1:5" ht="20.399999999999999">
       <c r="A145" s="7">
         <v>144</v>
       </c>
@@ -4628,7 +4632,7 @@
       </c>
       <c r="E159" s="9"/>
     </row>
-    <row r="160" spans="1:5" ht="30.6">
+    <row r="160" spans="1:5" ht="20.399999999999999">
       <c r="A160" s="7">
         <v>159</v>
       </c>
@@ -4898,7 +4902,7 @@
       </c>
       <c r="E177" s="9"/>
     </row>
-    <row r="178" spans="1:5" ht="20.399999999999999">
+    <row r="178" spans="1:5">
       <c r="A178" s="7">
         <v>177</v>
       </c>
@@ -4928,7 +4932,7 @@
       </c>
       <c r="E179" s="9"/>
     </row>
-    <row r="180" spans="1:5" ht="20.399999999999999">
+    <row r="180" spans="1:5">
       <c r="A180" s="7">
         <v>179</v>
       </c>
@@ -5018,7 +5022,7 @@
       </c>
       <c r="E185" s="9"/>
     </row>
-    <row r="186" spans="1:5" ht="30.6">
+    <row r="186" spans="1:5" ht="20.399999999999999">
       <c r="A186" s="7">
         <v>185</v>
       </c>
@@ -5903,7 +5907,7 @@
       </c>
       <c r="E244" s="9"/>
     </row>
-    <row r="245" spans="1:5" ht="30.6">
+    <row r="245" spans="1:5" ht="20.399999999999999">
       <c r="A245" s="7">
         <v>244</v>
       </c>
@@ -5963,7 +5967,7 @@
       </c>
       <c r="E248" s="9"/>
     </row>
-    <row r="249" spans="1:5" ht="20.399999999999999">
+    <row r="249" spans="1:5">
       <c r="A249" s="7">
         <v>248</v>
       </c>
@@ -6038,7 +6042,7 @@
       </c>
       <c r="E253" s="9"/>
     </row>
-    <row r="254" spans="1:5" ht="20.399999999999999">
+    <row r="254" spans="1:5">
       <c r="A254" s="7">
         <v>253</v>
       </c>
@@ -6053,7 +6057,7 @@
       </c>
       <c r="E254" s="9"/>
     </row>
-    <row r="255" spans="1:5" ht="20.399999999999999">
+    <row r="255" spans="1:5">
       <c r="A255" s="7">
         <v>254</v>
       </c>
@@ -6293,7 +6297,7 @@
       </c>
       <c r="E270" s="9"/>
     </row>
-    <row r="271" spans="1:5" ht="30.6">
+    <row r="271" spans="1:5" ht="20.399999999999999">
       <c r="A271" s="7">
         <v>270</v>
       </c>
@@ -6398,7 +6402,7 @@
       </c>
       <c r="E277" s="9"/>
     </row>
-    <row r="278" spans="1:5" ht="30.6">
+    <row r="278" spans="1:5" ht="20.399999999999999">
       <c r="A278" s="7">
         <v>277</v>
       </c>
@@ -6458,7 +6462,7 @@
       </c>
       <c r="E281" s="9"/>
     </row>
-    <row r="282" spans="1:5" ht="20.399999999999999">
+    <row r="282" spans="1:5">
       <c r="A282" s="7">
         <v>281</v>
       </c>
@@ -7028,7 +7032,7 @@
       </c>
       <c r="E319" s="9"/>
     </row>
-    <row r="320" spans="1:5" ht="30.6">
+    <row r="320" spans="1:5" ht="20.399999999999999">
       <c r="A320" s="7">
         <v>319</v>
       </c>
@@ -7103,7 +7107,7 @@
       </c>
       <c r="E324" s="9"/>
     </row>
-    <row r="325" spans="1:5" ht="20.399999999999999">
+    <row r="325" spans="1:5">
       <c r="A325" s="7">
         <v>324</v>
       </c>
@@ -7133,7 +7137,7 @@
       </c>
       <c r="E326" s="9"/>
     </row>
-    <row r="327" spans="1:5" ht="20.399999999999999">
+    <row r="327" spans="1:5">
       <c r="A327" s="7">
         <v>326</v>
       </c>
@@ -7148,7 +7152,7 @@
       </c>
       <c r="E327" s="9"/>
     </row>
-    <row r="328" spans="1:5" ht="30.6">
+    <row r="328" spans="1:5" ht="20.399999999999999">
       <c r="A328" s="7">
         <v>327</v>
       </c>
@@ -7238,7 +7242,7 @@
       </c>
       <c r="E333" s="9"/>
     </row>
-    <row r="334" spans="1:5" ht="30.6">
+    <row r="334" spans="1:5">
       <c r="A334" s="7">
         <v>333</v>
       </c>
@@ -7598,7 +7602,7 @@
       </c>
       <c r="E357" s="9"/>
     </row>
-    <row r="358" spans="1:5" ht="30.6">
+    <row r="358" spans="1:5" ht="20.399999999999999">
       <c r="A358" s="7">
         <v>357</v>
       </c>
@@ -7613,7 +7617,7 @@
       </c>
       <c r="E358" s="10"/>
     </row>
-    <row r="359" spans="1:5" ht="30.6">
+    <row r="359" spans="1:5" ht="20.399999999999999">
       <c r="A359" s="7">
         <v>358</v>
       </c>
@@ -7958,7 +7962,7 @@
       </c>
       <c r="E381" s="9"/>
     </row>
-    <row r="382" spans="1:5" ht="30.6">
+    <row r="382" spans="1:5" ht="20.399999999999999">
       <c r="A382" s="7">
         <v>381</v>
       </c>
@@ -8093,7 +8097,7 @@
       </c>
       <c r="E390" s="9"/>
     </row>
-    <row r="391" spans="1:5" ht="30.6">
+    <row r="391" spans="1:5" ht="20.399999999999999">
       <c r="A391" s="7">
         <v>390</v>
       </c>
@@ -8408,7 +8412,7 @@
       </c>
       <c r="E411" s="9"/>
     </row>
-    <row r="412" spans="1:5" ht="30.6">
+    <row r="412" spans="1:5" ht="20.399999999999999">
       <c r="A412" s="7">
         <v>411</v>
       </c>
@@ -8678,7 +8682,7 @@
       </c>
       <c r="E429" s="9"/>
     </row>
-    <row r="430" spans="1:5" ht="30.6">
+    <row r="430" spans="1:5" ht="20.399999999999999">
       <c r="A430" s="7">
         <v>429</v>
       </c>
